--- a/InSb results/InSb test losses.xlsx
+++ b/InSb results/InSb test losses.xlsx
@@ -522,64 +522,64 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>17.61176490783691</v>
+        <v>12.14279460906982</v>
       </c>
       <c r="B2">
-        <v>19.40005111694336</v>
+        <v>10.67367553710938</v>
       </c>
       <c r="C2">
-        <v>20.36785888671875</v>
+        <v>10.2821798324585</v>
       </c>
       <c r="D2">
-        <v>20.25167083740234</v>
+        <v>10.47917461395264</v>
       </c>
       <c r="E2">
-        <v>23.67064666748047</v>
+        <v>11.00391864776611</v>
       </c>
       <c r="F2">
-        <v>22.47179222106934</v>
+        <v>10.94726943969727</v>
       </c>
       <c r="G2">
-        <v>21.02722358703613</v>
+        <v>10.37359619140625</v>
       </c>
       <c r="H2">
-        <v>14.5232105255127</v>
+        <v>10.12698364257812</v>
       </c>
       <c r="I2">
-        <v>11.6956615447998</v>
+        <v>7.966312408447266</v>
       </c>
       <c r="J2">
-        <v>11.48695945739746</v>
+        <v>7.884181022644043</v>
       </c>
       <c r="K2">
-        <v>14.86586952209473</v>
+        <v>7.987425327301025</v>
       </c>
       <c r="L2">
-        <v>23.02753829956055</v>
+        <v>7.200765609741211</v>
       </c>
       <c r="M2">
-        <v>22.12560081481934</v>
+        <v>8.064828872680664</v>
       </c>
       <c r="N2">
-        <v>13.62432384490967</v>
+        <v>8.718051910400391</v>
       </c>
       <c r="O2">
-        <v>11.55364036560059</v>
+        <v>9.844852447509766</v>
       </c>
       <c r="P2">
-        <v>12.76226329803467</v>
+        <v>8.199592590332031</v>
       </c>
       <c r="Q2">
-        <v>13.65972137451172</v>
+        <v>5.558055400848389</v>
       </c>
       <c r="R2">
-        <v>13.3029956817627</v>
+        <v>4.396246433258057</v>
       </c>
       <c r="S2">
-        <v>10.25269412994385</v>
+        <v>7.055111885070801</v>
       </c>
       <c r="T2">
-        <v>9.358959197998047</v>
+        <v>8.218676567077637</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
@@ -587,64 +587,64 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>13.53689670562744</v>
+        <v>11.03751468658447</v>
       </c>
       <c r="B3">
-        <v>13.66029262542725</v>
+        <v>9.855225563049316</v>
       </c>
       <c r="C3">
-        <v>13.04711627960205</v>
+        <v>9.657821655273438</v>
       </c>
       <c r="D3">
-        <v>12.70433139801025</v>
+        <v>9.430115699768066</v>
       </c>
       <c r="E3">
-        <v>15.0574254989624</v>
+        <v>10.60297775268555</v>
       </c>
       <c r="F3">
-        <v>13.13248538970947</v>
+        <v>9.950370788574219</v>
       </c>
       <c r="G3">
-        <v>12.82092571258545</v>
+        <v>9.564296722412109</v>
       </c>
       <c r="H3">
-        <v>10.05733871459961</v>
+        <v>9.177765846252441</v>
       </c>
       <c r="I3">
-        <v>8.195880889892578</v>
+        <v>7.727982997894287</v>
       </c>
       <c r="J3">
-        <v>8.669820785522461</v>
+        <v>8.012015342712402</v>
       </c>
       <c r="K3">
-        <v>9.181440353393555</v>
+        <v>8.456684112548828</v>
       </c>
       <c r="L3">
-        <v>12.82982444763184</v>
+        <v>7.245524883270264</v>
       </c>
       <c r="M3">
-        <v>12.22696304321289</v>
+        <v>7.464300632476807</v>
       </c>
       <c r="N3">
-        <v>8.651275634765625</v>
+        <v>6.948038101196289</v>
       </c>
       <c r="O3">
-        <v>6.447614192962646</v>
+        <v>6.126116752624512</v>
       </c>
       <c r="P3">
-        <v>7.467746734619141</v>
+        <v>5.775051116943359</v>
       </c>
       <c r="Q3">
-        <v>7.720620632171631</v>
+        <v>4.692434310913086</v>
       </c>
       <c r="R3">
-        <v>8.21652889251709</v>
+        <v>4.173890590667725</v>
       </c>
       <c r="S3">
-        <v>6.812748908996582</v>
+        <v>5.117351055145264</v>
       </c>
       <c r="T3">
-        <v>8.090888023376465</v>
+        <v>7.032238960266113</v>
       </c>
       <c r="U3" t="s">
         <v>22</v>
@@ -652,64 +652,64 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>15.41976356506348</v>
+        <v>11.74717330932617</v>
       </c>
       <c r="B4">
-        <v>16.51539421081543</v>
+        <v>10.41719245910645</v>
       </c>
       <c r="C4">
-        <v>16.81337738037109</v>
+        <v>10.07483196258545</v>
       </c>
       <c r="D4">
-        <v>17.06951332092285</v>
+        <v>10.11896514892578</v>
       </c>
       <c r="E4">
-        <v>19.87150192260742</v>
+        <v>10.77637004852295</v>
       </c>
       <c r="F4">
-        <v>18.22328948974609</v>
+        <v>10.32919025421143</v>
       </c>
       <c r="G4">
-        <v>17.77655792236328</v>
+        <v>9.754703521728516</v>
       </c>
       <c r="H4">
-        <v>12.66650676727295</v>
+        <v>9.390039443969727</v>
       </c>
       <c r="I4">
-        <v>10.36575794219971</v>
+        <v>7.436416149139404</v>
       </c>
       <c r="J4">
-        <v>10.36703968048096</v>
+        <v>7.573602199554443</v>
       </c>
       <c r="K4">
-        <v>12.45065307617188</v>
+        <v>8.310979843139648</v>
       </c>
       <c r="L4">
-        <v>18.64207649230957</v>
+        <v>7.329591274261475</v>
       </c>
       <c r="M4">
-        <v>18.00298500061035</v>
+        <v>8.173836708068848</v>
       </c>
       <c r="N4">
-        <v>11.56137371063232</v>
+        <v>8.22754955291748</v>
       </c>
       <c r="O4">
-        <v>9.942890167236328</v>
+        <v>8.472984313964844</v>
       </c>
       <c r="P4">
-        <v>10.80047988891602</v>
+        <v>7.116775035858154</v>
       </c>
       <c r="Q4">
-        <v>11.06696510314941</v>
+        <v>5.046597480773926</v>
       </c>
       <c r="R4">
-        <v>10.63786220550537</v>
+        <v>4.128823757171631</v>
       </c>
       <c r="S4">
-        <v>9.056271553039551</v>
+        <v>6.048169136047363</v>
       </c>
       <c r="T4">
-        <v>8.866517066955566</v>
+        <v>7.849439144134521</v>
       </c>
       <c r="U4" t="s">
         <v>23</v>
@@ -717,64 +717,64 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>16.69040679931641</v>
+        <v>12.01071643829346</v>
       </c>
       <c r="B5">
-        <v>18.2500057220459</v>
+        <v>10.59246349334717</v>
       </c>
       <c r="C5">
-        <v>19.09462738037109</v>
+        <v>10.21424865722656</v>
       </c>
       <c r="D5">
-        <v>18.93435859680176</v>
+        <v>10.38918209075928</v>
       </c>
       <c r="E5">
-        <v>22.25815010070801</v>
+        <v>10.92212867736816</v>
       </c>
       <c r="F5">
-        <v>20.80995178222656</v>
+        <v>10.74389743804932</v>
       </c>
       <c r="G5">
-        <v>19.61835289001465</v>
+        <v>10.16315650939941</v>
       </c>
       <c r="H5">
-        <v>13.62625408172607</v>
+        <v>9.818265914916992</v>
       </c>
       <c r="I5">
-        <v>11.06556606292725</v>
+        <v>7.758659839630127</v>
       </c>
       <c r="J5">
-        <v>11.19071006774902</v>
+        <v>7.585257053375244</v>
       </c>
       <c r="K5">
-        <v>14.41066932678223</v>
+        <v>7.914493560791016</v>
       </c>
       <c r="L5">
-        <v>21.88172149658203</v>
+        <v>7.174837589263916</v>
       </c>
       <c r="M5">
-        <v>20.80350494384766</v>
+        <v>8.225833892822266</v>
       </c>
       <c r="N5">
-        <v>12.88435649871826</v>
+        <v>8.869067192077637</v>
       </c>
       <c r="O5">
-        <v>11.1485013961792</v>
+        <v>9.872750282287598</v>
       </c>
       <c r="P5">
-        <v>12.18005847930908</v>
+        <v>8.076870918273926</v>
       </c>
       <c r="Q5">
-        <v>13.0190896987915</v>
+        <v>5.445730686187744</v>
       </c>
       <c r="R5">
-        <v>12.54929542541504</v>
+        <v>4.305789947509766</v>
       </c>
       <c r="S5">
-        <v>9.995462417602539</v>
+        <v>7.025911331176758</v>
       </c>
       <c r="T5">
-        <v>9.250419616699219</v>
+        <v>8.202383041381836</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -782,64 +782,64 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>17.04032897949219</v>
+        <v>12.08090686798096</v>
       </c>
       <c r="B6">
-        <v>18.73641014099121</v>
+        <v>10.61319828033447</v>
       </c>
       <c r="C6">
-        <v>19.6798152923584</v>
+        <v>10.21591663360596</v>
       </c>
       <c r="D6">
-        <v>19.46717834472656</v>
+        <v>10.38222503662109</v>
       </c>
       <c r="E6">
-        <v>22.77392578125</v>
+        <v>10.90544414520264</v>
       </c>
       <c r="F6">
-        <v>21.56414985656738</v>
+        <v>10.83071327209473</v>
       </c>
       <c r="G6">
-        <v>20.13267135620117</v>
+        <v>10.26416015625</v>
       </c>
       <c r="H6">
-        <v>13.81583595275879</v>
+        <v>9.995611190795898</v>
       </c>
       <c r="I6">
-        <v>11.23262214660645</v>
+        <v>7.905689239501953</v>
       </c>
       <c r="J6">
-        <v>11.20339584350586</v>
+        <v>7.834975719451904</v>
       </c>
       <c r="K6">
-        <v>14.49721431732178</v>
+        <v>7.977504730224609</v>
       </c>
       <c r="L6">
-        <v>22.38527679443359</v>
+        <v>7.178092479705811</v>
       </c>
       <c r="M6">
-        <v>21.51302719116211</v>
+        <v>8.121115684509277</v>
       </c>
       <c r="N6">
-        <v>13.1511058807373</v>
+        <v>8.775348663330078</v>
       </c>
       <c r="O6">
-        <v>11.2764310836792</v>
+        <v>9.818962097167969</v>
       </c>
       <c r="P6">
-        <v>12.47509002685547</v>
+        <v>8.162089347839355</v>
       </c>
       <c r="Q6">
-        <v>13.30607891082764</v>
+        <v>5.500208854675293</v>
       </c>
       <c r="R6">
-        <v>12.91542816162109</v>
+        <v>4.364334106445312</v>
       </c>
       <c r="S6">
-        <v>10.17978096008301</v>
+        <v>7.011741161346436</v>
       </c>
       <c r="T6">
-        <v>9.336690902709961</v>
+        <v>8.201554298400879</v>
       </c>
       <c r="U6" t="s">
         <v>25</v>
